--- a/names.xlsx
+++ b/names.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Borderlands</t>
   </si>
@@ -110,6 +110,18 @@
   </si>
   <si>
     <t>Mountains</t>
+  </si>
+  <si>
+    <t>Marduk</t>
+  </si>
+  <si>
+    <t>Sigfried</t>
+  </si>
+  <si>
+    <t>Robert(Germanic - Bright famous one; Famously Famous;)</t>
+  </si>
+  <si>
+    <t>Revelin</t>
   </si>
 </sst>
 </file>
@@ -478,7 +490,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,10 +576,22 @@
       <c r="A12" t="s">
         <v>6</v>
       </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
